--- a/CodeSystem-medication-line-origin-type.xlsx
+++ b/CodeSystem-medication-line-origin-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T05:03:15+00:00</t>
+    <t>2024-11-19T08:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
